--- a/biology/Zoologie/Ghatsa/Ghatsa.xlsx
+++ b/biology/Zoologie/Ghatsa/Ghatsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ghatsa est un genre de poissons d'eau douce téléostéens de la famille des Balitoridae et de l'ordre des Cypriniformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Ghatsa sont endémique d'Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Ghatsa sont endémique d'Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 mars 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 mars 2024) :
 Ghatsa menoni (Shaji &amp; Easa, 1995)
 Ghatsa montana (Herre, 1945)
 Ghatsa pillaii (Indra &amp; Rema Devi, 1981)
@@ -577,10 +593,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ghatsa Randall (d) &amp; Page (d), 2015[2],[3].
-Le genre Ghatsa a été créé pour reclasser certaines espèces des Ghâts occidentaux (Inde) précédemment attribuées au genre Homaloptera[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ghatsa Randall (d) &amp; Page (d), 2015,.
+Le genre Ghatsa a été créé pour reclasser certaines espèces des Ghâts occidentaux (Inde) précédemment attribuées au genre Homaloptera.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Ghatsa, fait référence aux Ghâts occidentaux[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Ghatsa, fait référence aux Ghâts occidentaux
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Zachary S. Randall et Lawrence M. Page, « On the paraphyly of Homaloptera (Teleostei: Balitoridae) and description of a new genus of hillstream loaches from the Western Ghats of India », Zootaxa, Magnolia Press (d), vol. 3926, no 1,‎ 4 mars 2015, p. 57–86 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 25781768, DOI 10.11646/ZOOTAXA.3926.1.2, lire en ligne)</t>
         </is>
